--- a/Answers and Self-Assessment/Self Assessment - FrontEnd Developer.xlsx
+++ b/Answers and Self-Assessment/Self Assessment - FrontEnd Developer.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Self Assessment</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t xml:space="preserve">Code versioning tool (GIT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">Debug Skills</t>
@@ -496,11 +493,11 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.98"/>
@@ -623,10 +620,10 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="n">
-        <v>4</v>
-      </c>
+      <c r="D10" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -637,13 +634,13 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
-        <v>14</v>
+      <c r="F11" s="10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -655,7 +652,7 @@
     </row>
     <row r="13" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -667,7 +664,7 @@
     </row>
     <row r="14" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -679,7 +676,7 @@
     </row>
     <row r="15" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -691,7 +688,7 @@
     </row>
     <row r="16" customFormat="false" ht="37.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -703,7 +700,7 @@
     </row>
     <row r="17" customFormat="false" ht="40.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -715,7 +712,7 @@
     </row>
     <row r="18" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -727,7 +724,7 @@
     </row>
     <row r="19" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -739,7 +736,7 @@
     </row>
     <row r="20" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -751,7 +748,7 @@
     </row>
     <row r="21" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -763,7 +760,7 @@
     </row>
     <row r="22" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -775,7 +772,7 @@
     </row>
     <row r="23" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -787,7 +784,7 @@
     </row>
     <row r="24" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -799,7 +796,7 @@
     </row>
     <row r="25" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -811,7 +808,7 @@
     </row>
     <row r="26" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -823,7 +820,7 @@
     </row>
     <row r="27" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -835,7 +832,7 @@
     </row>
     <row r="28" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -847,7 +844,7 @@
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="14" t="n">
         <f aca="false">SUM(B7:B28)</f>
@@ -859,15 +856,15 @@
       </c>
       <c r="D29" s="14" t="n">
         <f aca="false">SUM(D7:D28)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E29" s="14" t="n">
         <f aca="false">SUM(E7:E28)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F29" s="14" t="n">
         <f aca="false">SUM(F7:F28)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,7 +904,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -930,7 +927,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
